--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H2">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I2">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J2">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N2">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O2">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P2">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q2">
-        <v>1.702185909358047</v>
+        <v>6.518736422416</v>
       </c>
       <c r="R2">
-        <v>1.702185909358047</v>
+        <v>58.66862780174401</v>
       </c>
       <c r="S2">
-        <v>0.0002020052038319486</v>
+        <v>0.0005608187105029164</v>
       </c>
       <c r="T2">
-        <v>0.0002020052038319486</v>
+        <v>0.0006083996842029081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H3">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I3">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J3">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P3">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q3">
-        <v>5.529252205207841</v>
+        <v>19.31702864165689</v>
       </c>
       <c r="R3">
-        <v>5.529252205207841</v>
+        <v>173.853257774912</v>
       </c>
       <c r="S3">
-        <v>0.00065617845419276</v>
+        <v>0.001661878988742241</v>
       </c>
       <c r="T3">
-        <v>0.00065617845419276</v>
+        <v>0.001802876104164806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H4">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I4">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J4">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N4">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O4">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P4">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q4">
-        <v>5.471596638678694</v>
+        <v>24.04865894426845</v>
       </c>
       <c r="R4">
-        <v>5.471596638678694</v>
+        <v>216.437930498416</v>
       </c>
       <c r="S4">
-        <v>0.0006493362377199664</v>
+        <v>0.002068949720389289</v>
       </c>
       <c r="T4">
-        <v>0.0006493362377199664</v>
+        <v>0.00224448352550105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H5">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I5">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J5">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N5">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O5">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P5">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q5">
-        <v>12.42001788776578</v>
+        <v>46.81732277061156</v>
       </c>
       <c r="R5">
-        <v>12.42001788776578</v>
+        <v>421.3559049355041</v>
       </c>
       <c r="S5">
-        <v>0.001473933153377336</v>
+        <v>0.004027779140620948</v>
       </c>
       <c r="T5">
-        <v>0.001473933153377336</v>
+        <v>0.004369503925779066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H6">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I6">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J6">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N6">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O6">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P6">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q6">
-        <v>8.178115935307195</v>
+        <v>27.23163472264534</v>
       </c>
       <c r="R6">
-        <v>8.178115935307195</v>
+        <v>163.389808335872</v>
       </c>
       <c r="S6">
-        <v>0.0009705296979553021</v>
+        <v>0.002342786896172774</v>
       </c>
       <c r="T6">
-        <v>0.0009705296979553021</v>
+        <v>0.00169436906091339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H7">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J7">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N7">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O7">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P7">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q7">
-        <v>170.3590415670534</v>
+        <v>2.527090760858</v>
       </c>
       <c r="R7">
-        <v>170.3590415670534</v>
+        <v>22.743816847722</v>
       </c>
       <c r="S7">
-        <v>0.02021718822084864</v>
+        <v>0.0002174101988469345</v>
       </c>
       <c r="T7">
-        <v>0.02021718822084864</v>
+        <v>0.0002358557120933978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H8">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J8">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P8">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q8">
-        <v>553.3814497483233</v>
+        <v>7.488550149028443</v>
       </c>
       <c r="R8">
-        <v>553.3814497483233</v>
+        <v>67.39695134125598</v>
       </c>
       <c r="S8">
-        <v>0.06567198796480908</v>
+        <v>0.0006442535433205989</v>
       </c>
       <c r="T8">
-        <v>0.06567198796480908</v>
+        <v>0.0006989132940150342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H9">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J9">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N9">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O9">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P9">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q9">
-        <v>547.6111358237914</v>
+        <v>9.32284109848422</v>
       </c>
       <c r="R9">
-        <v>547.6111358237914</v>
+        <v>83.90556988635799</v>
       </c>
       <c r="S9">
-        <v>0.06498720175309675</v>
+        <v>0.0008020609186001928</v>
       </c>
       <c r="T9">
-        <v>0.06498720175309675</v>
+        <v>0.000870109360563701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H10">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I10">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J10">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N10">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O10">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P10">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q10">
-        <v>1243.026588325715</v>
+        <v>18.14947194595578</v>
       </c>
       <c r="R10">
-        <v>1243.026588325715</v>
+        <v>163.345247513602</v>
       </c>
       <c r="S10">
-        <v>0.1475149323953489</v>
+        <v>0.001561431969858255</v>
       </c>
       <c r="T10">
-        <v>0.1475149323953489</v>
+        <v>0.00169390696061869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H11">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I11">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J11">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N11">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O11">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P11">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q11">
-        <v>818.4863855961598</v>
+        <v>10.55677175012267</v>
       </c>
       <c r="R11">
-        <v>818.4863855961598</v>
+        <v>63.340630500736</v>
       </c>
       <c r="S11">
-        <v>0.0971330500664184</v>
+        <v>0.000908218209225148</v>
       </c>
       <c r="T11">
-        <v>0.0971330500664184</v>
+        <v>0.0006568488311007562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H12">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I12">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J12">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N12">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O12">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P12">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q12">
-        <v>258.655710905189</v>
+        <v>273.35006983233</v>
       </c>
       <c r="R12">
-        <v>258.655710905189</v>
+        <v>2460.15062849097</v>
       </c>
       <c r="S12">
-        <v>0.03069570680643541</v>
+        <v>0.02351680199127193</v>
       </c>
       <c r="T12">
-        <v>0.03069570680643541</v>
+        <v>0.02551201419817422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H13">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I13">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J13">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P13">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q13">
-        <v>840.1976846650582</v>
+        <v>810.0206521608399</v>
       </c>
       <c r="R13">
-        <v>840.1976846650582</v>
+        <v>7290.185869447559</v>
       </c>
       <c r="S13">
-        <v>0.09970961668570337</v>
+        <v>0.06968754497627139</v>
       </c>
       <c r="T13">
-        <v>0.09970961668570337</v>
+        <v>0.07559997475551238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H14">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I14">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J14">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N14">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O14">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P14">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q14">
-        <v>831.4366313240267</v>
+        <v>1008.43202973887</v>
       </c>
       <c r="R14">
-        <v>831.4366313240267</v>
+        <v>9075.888267649829</v>
       </c>
       <c r="S14">
-        <v>0.09866990747638142</v>
+        <v>0.08675723543649369</v>
       </c>
       <c r="T14">
-        <v>0.09866990747638142</v>
+        <v>0.09411789167045924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H15">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I15">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J15">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N15">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O15">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P15">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q15">
-        <v>1887.284190612746</v>
+        <v>1963.19004473053</v>
       </c>
       <c r="R15">
-        <v>1887.284190612746</v>
+        <v>17668.71040257477</v>
       </c>
       <c r="S15">
-        <v>0.2239715565248222</v>
+        <v>0.1688967980929475</v>
       </c>
       <c r="T15">
-        <v>0.2239715565248222</v>
+        <v>0.1832263380272818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>110.36247</v>
+      </c>
+      <c r="H16">
+        <v>331.08741</v>
+      </c>
+      <c r="I16">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J16">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.346848</v>
+      </c>
+      <c r="N16">
+        <v>20.693696</v>
+      </c>
+      <c r="O16">
+        <v>0.2197280054227695</v>
+      </c>
+      <c r="P16">
+        <v>0.1580622369691433</v>
+      </c>
+      <c r="Q16">
+        <v>1141.90370199456</v>
+      </c>
+      <c r="R16">
+        <v>6851.42221196736</v>
+      </c>
+      <c r="S16">
+        <v>0.09824004533592531</v>
+      </c>
+      <c r="T16">
+        <v>0.07104995065144204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>128.860357</v>
+      </c>
+      <c r="H17">
+        <v>386.581071</v>
+      </c>
+      <c r="I17">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J17">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.476839</v>
+      </c>
+      <c r="N17">
+        <v>7.430517</v>
+      </c>
+      <c r="O17">
+        <v>0.0525987134655237</v>
+      </c>
+      <c r="P17">
+        <v>0.05675564862155354</v>
+      </c>
+      <c r="Q17">
+        <v>319.166357771523</v>
+      </c>
+      <c r="R17">
+        <v>2872.497219943707</v>
+      </c>
+      <c r="S17">
+        <v>0.02745846029083629</v>
+      </c>
+      <c r="T17">
+        <v>0.0297880906196264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>128.860357</v>
+      </c>
+      <c r="H18">
+        <v>386.581071</v>
+      </c>
+      <c r="I18">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J18">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.339638666666666</v>
+      </c>
+      <c r="N18">
+        <v>22.018916</v>
+      </c>
+      <c r="O18">
+        <v>0.1558662275458673</v>
+      </c>
+      <c r="P18">
+        <v>0.1681845098427879</v>
+      </c>
+      <c r="Q18">
+        <v>945.7884588376705</v>
+      </c>
+      <c r="R18">
+        <v>8512.096129539033</v>
+      </c>
+      <c r="S18">
+        <v>0.08136789548200478</v>
+      </c>
+      <c r="T18">
+        <v>0.08827130940605364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>128.860357</v>
+      </c>
+      <c r="H19">
+        <v>386.581071</v>
+      </c>
+      <c r="I19">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J19">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.137454333333332</v>
+      </c>
+      <c r="N19">
+        <v>27.412363</v>
+      </c>
+      <c r="O19">
+        <v>0.1940450478546679</v>
+      </c>
+      <c r="P19">
+        <v>0.2093806450230146</v>
+      </c>
+      <c r="Q19">
+        <v>1177.45562746453</v>
+      </c>
+      <c r="R19">
+        <v>10597.10064718077</v>
+      </c>
+      <c r="S19">
+        <v>0.1012986419267313</v>
+      </c>
+      <c r="T19">
+        <v>0.1098930199799144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>128.860357</v>
+      </c>
+      <c r="H20">
+        <v>386.581071</v>
+      </c>
+      <c r="I20">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J20">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.78856566666667</v>
+      </c>
+      <c r="N20">
+        <v>53.365697</v>
+      </c>
+      <c r="O20">
+        <v>0.3777620057111716</v>
+      </c>
+      <c r="P20">
+        <v>0.4076169595435007</v>
+      </c>
+      <c r="Q20">
+        <v>2292.24092232461</v>
+      </c>
+      <c r="R20">
+        <v>20630.16830092149</v>
+      </c>
+      <c r="S20">
+        <v>0.1972056415411338</v>
+      </c>
+      <c r="T20">
+        <v>0.2139369600009696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>120.457682716293</v>
-      </c>
-      <c r="H16">
-        <v>120.457682716293</v>
-      </c>
-      <c r="I16">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="J16">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.3165346052589</v>
-      </c>
-      <c r="N16">
-        <v>10.3165346052589</v>
-      </c>
-      <c r="O16">
-        <v>0.2455804491234322</v>
-      </c>
-      <c r="P16">
-        <v>0.2455804491234322</v>
-      </c>
-      <c r="Q16">
-        <v>1242.705852211933</v>
-      </c>
-      <c r="R16">
-        <v>1242.705852211933</v>
-      </c>
-      <c r="S16">
-        <v>0.1474768693590585</v>
-      </c>
-      <c r="T16">
-        <v>0.1474768693590585</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>128.860357</v>
+      </c>
+      <c r="H21">
+        <v>386.581071</v>
+      </c>
+      <c r="I21">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J21">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.346848</v>
+      </c>
+      <c r="N21">
+        <v>20.693696</v>
+      </c>
+      <c r="O21">
+        <v>0.2197280054227695</v>
+      </c>
+      <c r="P21">
+        <v>0.1580622369691433</v>
+      </c>
+      <c r="Q21">
+        <v>1333.298527104736</v>
+      </c>
+      <c r="R21">
+        <v>7999.791162628415</v>
+      </c>
+      <c r="S21">
+        <v>0.1147060890688974</v>
+      </c>
+      <c r="T21">
+        <v>0.08295865438474877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>3.9665605</v>
+      </c>
+      <c r="H22">
+        <v>7.933121</v>
+      </c>
+      <c r="I22">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J22">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.476839</v>
+      </c>
+      <c r="N22">
+        <v>7.430517</v>
+      </c>
+      <c r="O22">
+        <v>0.0525987134655237</v>
+      </c>
+      <c r="P22">
+        <v>0.05675564862155354</v>
+      </c>
+      <c r="Q22">
+        <v>9.8245317422595</v>
+      </c>
+      <c r="R22">
+        <v>58.947190453557</v>
+      </c>
+      <c r="S22">
+        <v>0.0008452222740656364</v>
+      </c>
+      <c r="T22">
+        <v>0.0006112884074566112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>3.9665605</v>
+      </c>
+      <c r="H23">
+        <v>7.933121</v>
+      </c>
+      <c r="I23">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J23">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.339638666666666</v>
+      </c>
+      <c r="N23">
+        <v>22.018916</v>
+      </c>
+      <c r="O23">
+        <v>0.1558662275458673</v>
+      </c>
+      <c r="P23">
+        <v>0.1681845098427879</v>
+      </c>
+      <c r="Q23">
+        <v>29.11312081947266</v>
+      </c>
+      <c r="R23">
+        <v>174.678724916836</v>
+      </c>
+      <c r="S23">
+        <v>0.002504654555528266</v>
+      </c>
+      <c r="T23">
+        <v>0.001811436283042068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>3.9665605</v>
+      </c>
+      <c r="H24">
+        <v>7.933121</v>
+      </c>
+      <c r="I24">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J24">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.137454333333332</v>
+      </c>
+      <c r="N24">
+        <v>27.412363</v>
+      </c>
+      <c r="O24">
+        <v>0.1940450478546679</v>
+      </c>
+      <c r="P24">
+        <v>0.2093806450230146</v>
+      </c>
+      <c r="Q24">
+        <v>36.24426542915383</v>
+      </c>
+      <c r="R24">
+        <v>217.465592574923</v>
+      </c>
+      <c r="S24">
+        <v>0.00311815985245343</v>
+      </c>
+      <c r="T24">
+        <v>0.002255140486576174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>3.9665605</v>
+      </c>
+      <c r="H25">
+        <v>7.933121</v>
+      </c>
+      <c r="I25">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J25">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.78856566666667</v>
+      </c>
+      <c r="N25">
+        <v>53.365697</v>
+      </c>
+      <c r="O25">
+        <v>0.3777620057111716</v>
+      </c>
+      <c r="P25">
+        <v>0.4076169595435007</v>
+      </c>
+      <c r="Q25">
+        <v>70.55942192505617</v>
+      </c>
+      <c r="R25">
+        <v>423.356531550337</v>
+      </c>
+      <c r="S25">
+        <v>0.006070354966611032</v>
+      </c>
+      <c r="T25">
+        <v>0.00439025062885154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>3.9665605</v>
+      </c>
+      <c r="H26">
+        <v>7.933121</v>
+      </c>
+      <c r="I26">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J26">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.346848</v>
+      </c>
+      <c r="N26">
+        <v>20.693696</v>
+      </c>
+      <c r="O26">
+        <v>0.2197280054227695</v>
+      </c>
+      <c r="P26">
+        <v>0.1580622369691433</v>
+      </c>
+      <c r="Q26">
+        <v>41.041398576304</v>
+      </c>
+      <c r="R26">
+        <v>164.165594305216</v>
+      </c>
+      <c r="S26">
+        <v>0.003530865912548809</v>
+      </c>
+      <c r="T26">
+        <v>0.001702414040938369</v>
       </c>
     </row>
   </sheetData>
